--- a/CPU/Detalhamento_das_operacoes_de_controle.xlsx
+++ b/CPU/Detalhamento_das_operacoes_de_controle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\marcos\Documentos\Faculdade\CompDig\CompDig\CPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\marcos\Documentos\Faculdade\Computacao_Digital\CompDig\CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
-  <si>
-    <t>Estado</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Instrução</t>
   </si>
   <si>
-    <t>Operação</t>
-  </si>
-  <si>
     <t>LoadPC</t>
   </si>
   <si>
@@ -108,6 +102,15 @@
   </si>
   <si>
     <t>FETCH</t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>Estado (Ti)</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
@@ -224,6 +227,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,21 +253,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,467 +534,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3" t="s">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4" t="s">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
